--- a/Summary and Supporting Data/Project Supporting Data.xlsx
+++ b/Summary and Supporting Data/Project Supporting Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mlewis/Desktop/quantnet/Homework/Level 9/Project Summary and Answers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mlewis/Desktop/quantnet/Homework/Level 9/Group A and B/Summary and Supporting Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110BEF9D-9725-294F-B162-16083ED9031F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE62731-9379-F54A-BD96-425B57373619}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="480" windowWidth="28800" windowHeight="16200" activeTab="1" xr2:uid="{ED8663B0-01CF-764F-A4F2-5FE19B73C3B2}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="16200" xr2:uid="{ED8663B0-01CF-764F-A4F2-5FE19B73C3B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Group A Pricing" sheetId="6" r:id="rId1"/>
@@ -23617,8 +23617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E340E076-14E3-0144-8450-304B1525BACE}">
   <dimension ref="B1:AF30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5:T15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24815,6 +24815,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="R3:T3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Z3:AB3"/>
     <mergeCell ref="AD3:AF3"/>
@@ -24822,11 +24827,6 @@
     <mergeCell ref="V18:X18"/>
     <mergeCell ref="Z18:AB18"/>
     <mergeCell ref="AD18:AF18"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="R3:T3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24836,8 +24836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{080C58AB-518D-7343-A030-F55DF853340E}">
   <dimension ref="B1:AE57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:N15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N75" sqref="N75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26970,12 +26970,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="P17:R17"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="K3:N3"/>
@@ -26983,6 +26977,12 @@
     <mergeCell ref="F31:I31"/>
     <mergeCell ref="K31:N31"/>
     <mergeCell ref="P31:R31"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="P17:R17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -26993,9 +26993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC53988-A619-664E-8075-1EE96622BAF8}">
   <dimension ref="B1:P15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
